--- a/config_3.2/act_ty_lb1_config.xlsx
+++ b/config_3.2/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>line</t>
   </si>
@@ -376,6 +376,14 @@
       </rPr>
       <t>9,80,81,</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cur_path|皮肤路径 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_002_tylb1_</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,19 +923,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -934,8 +949,11 @@
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -946,6 +964,9 @@
         <v>1615219199</v>
       </c>
       <c r="D2" s="9"/>
+      <c r="E2" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -958,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/config_3.2/act_ty_lb1_config.xlsx
+++ b/config_3.2/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>line</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>act_002_tylb1_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_ty_xybox","prop_ty_ssbox","prop_ty_csbox",</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,9 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,29 +849,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="72.625" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -874,44 +882,84 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14"/>
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="2">
+        <v>1614643200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1615219199</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="14"/>
       <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="2">
+        <v>1614643200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1615219199</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E15" s="13"/>
     </row>
   </sheetData>
@@ -923,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,7 +984,7 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -949,24 +997,18 @@
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>1614643200</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1615219199</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="19" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1032,19 +1074,19 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>10482</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1058,19 +1100,19 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>10483</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1084,19 +1126,19 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>10484</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1110,19 +1152,19 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>10485</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1193,19 +1235,19 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>10486</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1219,19 +1261,19 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>10487</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1245,19 +1287,19 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>10488</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1271,19 +1313,19 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>10489</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>45</v>
       </c>
     </row>

--- a/config_3.2/act_ty_lb1_config.xlsx
+++ b/config_3.2/act_ty_lb1_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>line</t>
   </si>
@@ -185,64 +185,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"双倍奖励卡，请在3D捕鱼中使用"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"万能字符，可替代“新年快乐”任意字符"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","万能字符，可替代“新年快乐”任意字符"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x10","x280"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x6","x180"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x4","x88"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2","x40"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x240"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x140"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"x4","x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
+    <t>ty_lb1_btn_bx3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_wnz"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"zpg_icon_yg","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_lb1_wnz</t>
     </r>
     <r>
       <rPr>
@@ -259,18 +230,18 @@
   </si>
   <si>
     <r>
-      <t>"x2","x3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
+      <t>"zpg_icon_yg","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_lb1_wnz</t>
     </r>
     <r>
       <rPr>
@@ -286,24 +257,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ty_lb1_btn_bx3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_btn_bx2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_btn_bx1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb","ty_lb1_wnz"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_yg","</t>
+    <r>
+      <t>"zpg_icon_shui","</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +286,7 @@
   </si>
   <si>
     <r>
-      <t>"zpg_icon_yg","</t>
+      <t>"zpg_icon_shui","</t>
     </r>
     <r>
       <rPr>
@@ -358,60 +313,70 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"zpg_icon_shui","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_shui","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","传说宝箱：活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","史诗宝箱：活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得500福利券！"</t>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","史诗宝箱：活动期间可开启，最高可得500福利券！"</t>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
+  </si>
+  <si>
+    <t>"x1","x15"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10","x15"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x6","x5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,80,81,</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,9 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,7 +832,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +851,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -906,7 +868,9 @@
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D2" s="14"/>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -919,7 +883,9 @@
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D3" s="14"/>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -946,7 +912,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,11 +939,11 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>1612828800</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1613404799</v>
+      <c r="B2" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1615219199</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -992,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,20 +1011,20 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="17">
-        <v>10465</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>30</v>
+      <c r="F2" s="16">
+        <v>10482</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1071,20 +1037,20 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="17">
-        <v>10466</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="16">
+        <v>10483</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>31</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1097,20 +1063,20 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="17">
-        <v>10467</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>32</v>
+      <c r="D4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="16">
+        <v>10484</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1123,20 +1089,20 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10468</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>33</v>
+      <c r="D5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16">
+        <v>10485</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1154,7 +1120,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,20 +1172,20 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="17">
-        <v>10469</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16">
+        <v>10486</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1232,20 +1198,20 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="17">
-        <v>10470</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="D3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="16">
+        <v>10487</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1258,20 +1224,20 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="17">
-        <v>10471</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="16">
+        <v>10488</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1284,20 +1250,20 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10472</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16">
+        <v>10489</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.2/act_ty_lb1_config.xlsx
+++ b/config_3.2/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>line</t>
   </si>
@@ -283,15 +283,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"3dby_btn_jb","eznhk_icon_3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb","eznhk_icon_4"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb","stgc_icon_bx2"</t>
+    <t>"3dby_btn_jb","ty_lb1_icon_box2_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_box2_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_3"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -917,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,7 +984,7 @@
         <v>10482</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>41</v>
@@ -1006,7 +1010,7 @@
         <v>10483</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>42</v>
@@ -1032,7 +1036,7 @@
         <v>10484</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>43</v>
@@ -1058,7 +1062,7 @@
         <v>10485</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>40</v>
@@ -1078,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1141,7 +1145,7 @@
         <v>10486</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>37</v>
@@ -1167,7 +1171,7 @@
         <v>10487</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>38</v>
@@ -1193,7 +1197,7 @@
         <v>10488</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>39</v>
@@ -1219,7 +1223,7 @@
         <v>10489</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>40</v>
@@ -1228,6 +1232,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_3.2/act_ty_lb1_config.xlsx
+++ b/config_3.2/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>line</t>
   </si>
@@ -197,122 +197,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"3dby_btn_jb","ty_lb1_wnz"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_yg","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_yg","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_shui","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_shui","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"双倍奖励卡，请在3D捕鱼中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -397,6 +281,18 @@
   <si>
     <t>"prop_ty_xybox","prop_ty_ssbox","prop_ty_csbox",</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","eznhk_icon_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","eznhk_icon_4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","stgc_icon_bx2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -851,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -900,10 +796,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -915,7 +811,7 @@
         <v>1615219199</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -926,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -941,7 +837,7 @@
         <v>1615219199</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1022,7 +918,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,7 +971,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>28</v>
@@ -1084,10 +980,10 @@
         <v>10482</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1101,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>28</v>
@@ -1110,10 +1006,10 @@
         <v>10483</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1127,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>29</v>
@@ -1136,10 +1032,10 @@
         <v>10484</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1153,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
@@ -1162,10 +1058,10 @@
         <v>10485</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1182,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>28</v>
@@ -1245,10 +1141,10 @@
         <v>10486</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1262,7 +1158,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>28</v>
@@ -1271,10 +1167,10 @@
         <v>10487</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1288,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>29</v>
@@ -1297,10 +1193,10 @@
         <v>10488</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1314,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
@@ -1323,10 +1219,10 @@
         <v>10489</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
